--- a/biology/Histoire de la zoologie et de la botanique/Erich_Sochurek/Erich_Sochurek.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Erich_Sochurek/Erich_Sochurek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erich Sochurek, né le 26 avril 1923 à Vienne et mort le 21 novembre 1987, est un zoologiste autrichien, spécialiste de l'herpétologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erich Sochurek, né le 26 avril 1923 à Vienne et mort le 21 novembre 1987, est un zoologiste autrichien, spécialiste de l'herpétologie.
 </t>
         </is>
       </c>
@@ -513,16 +525,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxons décrits
-Vipera ursinii wettsteini (1955)
+          <t>Taxons décrits</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vipera ursinii wettsteini (1955)
 Lacerta muralis occidentale (1956)
 Lacerta sicula kurtklari (1956)
 Triturus alpestris winterii (1956)
 Echis cannabis leakeyi (1969)
 Vipera ammodytes gregorwallneri (1974)
 Cerastes cerastes karihartli (1974)
-Vipera aspis heinzdischeki (1979)[1]
-Publications</t>
+Vipera aspis heinzdischeki (1979)</t>
         </is>
       </c>
     </row>
@@ -550,9 +566,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Echis carinatus sochureki est nommée en l'honneur d'Erich Sochurek par Othmar Stemmler, avec qui il a travaillé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Echis carinatus sochureki est nommée en l'honneur d'Erich Sochurek par Othmar Stemmler, avec qui il a travaillé.
 </t>
         </is>
       </c>
